--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\AIN\N2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EA1B07-7200-4C98-9924-AD31BA2BAA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D2119-6B9E-4C90-B246-27227B816CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AFF2CFA-43B6-41D7-905E-CE665A9EB3F0}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>に当たって</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,14 +390,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5287BD-F5A0-4656-8097-0F884C4BA9FF}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>